--- a/src/main/java/com/atv/test/data/TestData.xlsx
+++ b/src/main/java/com/atv/test/data/TestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="14895" windowHeight="4155" tabRatio="370" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15480" windowHeight="4785" tabRatio="370" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RegisteraBlock" sheetId="3" r:id="rId1"/>
     <sheet name="Login" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Login</t>
   </si>
@@ -117,6 +118,9 @@
   </si>
   <si>
     <t>884-235-7894</t>
+  </si>
+  <si>
+    <t>admin@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -125,7 +129,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -232,7 +236,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -271,17 +274,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -295,6 +298,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -608,63 +612,63 @@
     <col min="7" max="7" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="29.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.42578125" style="25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.42578125" style="24" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="21" customFormat="1">
-      <c r="A1" s="19">
+    <row r="1" spans="1:16" s="20" customFormat="1">
+      <c r="A1" s="18">
         <v>0</v>
       </c>
-      <c r="B1" s="19">
+      <c r="B1" s="18">
         <v>1</v>
       </c>
-      <c r="C1" s="19">
+      <c r="C1" s="18">
         <v>2</v>
       </c>
-      <c r="D1" s="19">
+      <c r="D1" s="18">
         <v>3</v>
       </c>
-      <c r="E1" s="19">
+      <c r="E1" s="18">
         <v>4</v>
       </c>
-      <c r="F1" s="19">
+      <c r="F1" s="18">
         <v>5</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="18">
         <v>6</v>
       </c>
-      <c r="H1" s="19">
+      <c r="H1" s="18">
         <v>7</v>
       </c>
-      <c r="I1" s="20">
+      <c r="I1" s="19">
         <v>8</v>
       </c>
-      <c r="J1" s="22">
+      <c r="J1" s="21">
         <v>9</v>
       </c>
-      <c r="K1" s="22">
+      <c r="K1" s="21">
         <v>10</v>
       </c>
-      <c r="L1" s="18">
+      <c r="L1" s="17">
         <v>11</v>
       </c>
-      <c r="M1" s="20">
+      <c r="M1" s="19">
         <v>12</v>
       </c>
-      <c r="N1" s="22">
+      <c r="N1" s="21">
         <v>13</v>
       </c>
-      <c r="O1" s="20">
+      <c r="O1" s="19">
         <v>14</v>
       </c>
-      <c r="P1" s="20">
+      <c r="P1" s="19">
         <v>15</v>
       </c>
     </row>
@@ -680,11 +684,11 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="14"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="13"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="23"/>
+      <c r="N2" s="22"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
@@ -707,7 +711,7 @@
       <c r="F3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="3" t="s">
@@ -716,19 +720,19 @@
       <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="14" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="N3" s="23" t="s">
         <v>22</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -738,53 +742,53 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:16" s="15" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F4" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>38119</v>
       </c>
-      <c r="H4" s="28" t="s">
+      <c r="H4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="28" t="s">
+      <c r="I4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="28" t="s">
+      <c r="J4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="28" t="s">
+      <c r="K4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="28" t="s">
+      <c r="M4" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="28" t="s">
+      <c r="N4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="28" t="s">
+      <c r="P4" s="27" t="s">
         <v>29</v>
       </c>
     </row>
@@ -802,14 +806,14 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -819,7 +823,7 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1" s="8">
+      <c r="C1" s="7">
         <v>2</v>
       </c>
     </row>
@@ -828,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="9"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
@@ -837,24 +841,24 @@
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="C5" s="11"/>
+      <c r="C5" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
